--- a/utilities/betavariate_costs_projects=15.xlsx
+++ b/utilities/betavariate_costs_projects=15.xlsx
@@ -513,49 +513,49 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1144.197144811222</v>
+        <v>1484.186284130758</v>
       </c>
       <c r="B2" t="n">
-        <v>1990.373448412086</v>
+        <v>2238.001698579463</v>
       </c>
       <c r="C2" t="n">
-        <v>578.4863951446898</v>
+        <v>2368.727307015083</v>
       </c>
       <c r="D2" t="n">
-        <v>1430.446520616284</v>
+        <v>1899.401721890473</v>
       </c>
       <c r="E2" t="n">
-        <v>1052.951403598347</v>
+        <v>1615.180614355501</v>
       </c>
       <c r="F2" t="n">
-        <v>696.1427247491961</v>
+        <v>2354.115920891673</v>
       </c>
       <c r="G2" t="n">
-        <v>1785.355651424322</v>
+        <v>672.4839635179353</v>
       </c>
       <c r="H2" t="n">
-        <v>1770.415908071506</v>
+        <v>1693.022075552258</v>
       </c>
       <c r="I2" t="n">
-        <v>733.8344760530808</v>
+        <v>2392.075819239393</v>
       </c>
       <c r="J2" t="n">
-        <v>1907.09842174885</v>
+        <v>1427.478710753474</v>
       </c>
       <c r="K2" t="n">
-        <v>1597.288867008933</v>
+        <v>1054.54181628627</v>
       </c>
       <c r="L2" t="n">
-        <v>877.5601602920708</v>
+        <v>2183.684808525863</v>
       </c>
       <c r="M2" t="n">
-        <v>583.7759228562045</v>
+        <v>951.1619631573842</v>
       </c>
       <c r="N2" t="n">
-        <v>717.3854008349708</v>
+        <v>1912.987196290707</v>
       </c>
       <c r="O2" t="n">
-        <v>878.0116120664783</v>
+        <v>614.4648568438683</v>
       </c>
     </row>
   </sheetData>

--- a/utilities/betavariate_costs_projects=15.xlsx
+++ b/utilities/betavariate_costs_projects=15.xlsx
@@ -471,49 +471,49 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2">
-        <v>863.5511384544568</v>
+        <v>1075.956703105358</v>
       </c>
       <c r="B2">
-        <v>1717.107397802761</v>
+        <v>1703.102814927118</v>
       </c>
       <c r="C2">
-        <v>1659.235025551841</v>
+        <v>1037.427522638689</v>
       </c>
       <c r="D2">
-        <v>1334.293421476186</v>
+        <v>1352.382764451277</v>
       </c>
       <c r="E2">
-        <v>510.7610830655076</v>
+        <v>1139.674452890487</v>
       </c>
       <c r="F2">
-        <v>1173.208392120448</v>
+        <v>568.7561370986678</v>
       </c>
       <c r="G2">
-        <v>2627.189500634116</v>
+        <v>1594.109788710735</v>
       </c>
       <c r="H2">
-        <v>420.3714273864339</v>
+        <v>580.1742840953254</v>
       </c>
       <c r="I2">
-        <v>1474.163723200038</v>
+        <v>1246.720971271955</v>
       </c>
       <c r="J2">
-        <v>2394.202870345564</v>
+        <v>1178.659276738792</v>
       </c>
       <c r="K2">
-        <v>1200.358134032287</v>
+        <v>1670.160255078997</v>
       </c>
       <c r="L2">
-        <v>430.3840939563604</v>
+        <v>831.2706463830365</v>
       </c>
       <c r="M2">
-        <v>1400.490381460975</v>
+        <v>1627.970430548248</v>
       </c>
       <c r="N2">
-        <v>505.6143896036214</v>
+        <v>1814.994546586227</v>
       </c>
       <c r="O2">
-        <v>1109.083372703465</v>
+        <v>904.6849310535954</v>
       </c>
     </row>
   </sheetData>

--- a/utilities/betavariate_costs_projects=15.xlsx
+++ b/utilities/betavariate_costs_projects=15.xlsx
@@ -1,90 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>project0</t>
-  </si>
-  <si>
-    <t>project1</t>
-  </si>
-  <si>
-    <t>project2</t>
-  </si>
-  <si>
-    <t>project3</t>
-  </si>
-  <si>
-    <t>project4</t>
-  </si>
-  <si>
-    <t>project5</t>
-  </si>
-  <si>
-    <t>project6</t>
-  </si>
-  <si>
-    <t>project7</t>
-  </si>
-  <si>
-    <t>project8</t>
-  </si>
-  <si>
-    <t>project9</t>
-  </si>
-  <si>
-    <t>project10</t>
-  </si>
-  <si>
-    <t>project11</t>
-  </si>
-  <si>
-    <t>project12</t>
-  </si>
-  <si>
-    <t>project13</t>
-  </si>
-  <si>
-    <t>project14</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -99,35 +46,94 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -415,108 +421,144 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>project0</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>project1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>project2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>project3</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>project4</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>project5</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>project6</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>project7</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>project8</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>project9</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>project10</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>project11</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>project12</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>project13</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>project14</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:15">
-      <c r="A2">
-        <v>1075.956703105358</v>
-      </c>
-      <c r="B2">
-        <v>1703.102814927118</v>
-      </c>
-      <c r="C2">
-        <v>1037.427522638689</v>
-      </c>
-      <c r="D2">
-        <v>1352.382764451277</v>
-      </c>
-      <c r="E2">
-        <v>1139.674452890487</v>
-      </c>
-      <c r="F2">
-        <v>568.7561370986678</v>
-      </c>
-      <c r="G2">
-        <v>1594.109788710735</v>
-      </c>
-      <c r="H2">
-        <v>580.1742840953254</v>
-      </c>
-      <c r="I2">
-        <v>1246.720971271955</v>
-      </c>
-      <c r="J2">
-        <v>1178.659276738792</v>
-      </c>
-      <c r="K2">
-        <v>1670.160255078997</v>
-      </c>
-      <c r="L2">
-        <v>831.2706463830365</v>
-      </c>
-      <c r="M2">
-        <v>1627.970430548248</v>
-      </c>
-      <c r="N2">
-        <v>1814.994546586227</v>
-      </c>
-      <c r="O2">
-        <v>904.6849310535954</v>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>588.2171698503416</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1092.238153646987</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2709.789115637674</v>
+      </c>
+      <c r="D2" t="n">
+        <v>892.6269914867507</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1020.205033339281</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2079.015177815255</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1714.742658457426</v>
+      </c>
+      <c r="H2" t="n">
+        <v>758.32648425066</v>
+      </c>
+      <c r="I2" t="n">
+        <v>504.4228968055374</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2300.602627993498</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2259.646896956271</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1219.447938943742</v>
+      </c>
+      <c r="M2" t="n">
+        <v>931.7163739013884</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1438.041429134174</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1367.577943726098</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/utilities/betavariate_costs_projects=15.xlsx
+++ b/utilities/betavariate_costs_projects=15.xlsx
@@ -513,49 +513,49 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>588.2171698503416</v>
+        <v>1973.680090316681</v>
       </c>
       <c r="B2" t="n">
-        <v>1092.238153646987</v>
+        <v>1228.688591089464</v>
       </c>
       <c r="C2" t="n">
-        <v>2709.789115637674</v>
+        <v>873.8937476084285</v>
       </c>
       <c r="D2" t="n">
-        <v>892.6269914867507</v>
+        <v>1056.692072367465</v>
       </c>
       <c r="E2" t="n">
-        <v>1020.205033339281</v>
+        <v>1277.71093692937</v>
       </c>
       <c r="F2" t="n">
-        <v>2079.015177815255</v>
+        <v>1063.482652222148</v>
       </c>
       <c r="G2" t="n">
-        <v>1714.742658457426</v>
+        <v>1287.667460318952</v>
       </c>
       <c r="H2" t="n">
-        <v>758.32648425066</v>
+        <v>2296.544559068191</v>
       </c>
       <c r="I2" t="n">
-        <v>504.4228968055374</v>
+        <v>2285.156640596505</v>
       </c>
       <c r="J2" t="n">
-        <v>2300.602627993498</v>
+        <v>1164.87611985892</v>
       </c>
       <c r="K2" t="n">
-        <v>2259.646896956271</v>
+        <v>742.7869339055072</v>
       </c>
       <c r="L2" t="n">
-        <v>1219.447938943742</v>
+        <v>476.9848489604904</v>
       </c>
       <c r="M2" t="n">
-        <v>931.7163739013884</v>
+        <v>1628.993199854797</v>
       </c>
       <c r="N2" t="n">
-        <v>1438.041429134174</v>
+        <v>2237.699848349218</v>
       </c>
       <c r="O2" t="n">
-        <v>1367.577943726098</v>
+        <v>483.6881253781572</v>
       </c>
     </row>
   </sheetData>

--- a/utilities/betavariate_costs_projects=15.xlsx
+++ b/utilities/betavariate_costs_projects=15.xlsx
@@ -513,49 +513,49 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1973.680090316681</v>
+        <v>2664.047288739591</v>
       </c>
       <c r="B2" t="n">
-        <v>1228.688591089464</v>
+        <v>2059.602796784085</v>
       </c>
       <c r="C2" t="n">
-        <v>873.8937476084285</v>
+        <v>1025.638833743532</v>
       </c>
       <c r="D2" t="n">
-        <v>1056.692072367465</v>
+        <v>1218.584761573992</v>
       </c>
       <c r="E2" t="n">
-        <v>1277.71093692937</v>
+        <v>643.6845450987528</v>
       </c>
       <c r="F2" t="n">
-        <v>1063.482652222148</v>
+        <v>871.622588374867</v>
       </c>
       <c r="G2" t="n">
-        <v>1287.667460318952</v>
+        <v>2362.720550836448</v>
       </c>
       <c r="H2" t="n">
-        <v>2296.544559068191</v>
+        <v>2732.303347373439</v>
       </c>
       <c r="I2" t="n">
-        <v>2285.156640596505</v>
+        <v>1606.969883782713</v>
       </c>
       <c r="J2" t="n">
-        <v>1164.87611985892</v>
+        <v>306.1081546936639</v>
       </c>
       <c r="K2" t="n">
-        <v>742.7869339055072</v>
+        <v>1102.876586103971</v>
       </c>
       <c r="L2" t="n">
-        <v>476.9848489604904</v>
+        <v>454.4865837504417</v>
       </c>
       <c r="M2" t="n">
-        <v>1628.993199854797</v>
+        <v>1834.816888702532</v>
       </c>
       <c r="N2" t="n">
-        <v>2237.699848349218</v>
+        <v>2528.599213652513</v>
       </c>
       <c r="O2" t="n">
-        <v>483.6881253781572</v>
+        <v>546.7699714997985</v>
       </c>
     </row>
   </sheetData>
